--- a/trunk/Architect and Design/Time_log_PhucNguyen.xlsx
+++ b/trunk/Architect and Design/Time_log_PhucNguyen.xlsx
@@ -704,45 +704,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,6 +747,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,7 +1056,7 @@
   <dimension ref="A2:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,17 +1075,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
@@ -1144,7 +1144,7 @@
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
+      <c r="A7" s="57">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1170,19 +1170,19 @@
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="11">
         <v>41045</v>
       </c>
       <c r="C8" s="12">
-        <v>0.85416666666666663</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D8" s="12">
-        <v>0.95833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" ref="E8:E34" si="0">D8-C8</f>
-        <v>0.10416666666666674</v>
+        <f t="shared" ref="E8:E31" si="0">D8-C8</f>
+        <v>0.10416666666666663</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>13</v>
@@ -1196,7 +1196,7 @@
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1209,19 +1209,19 @@
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="39">
         <v>41047</v>
       </c>
       <c r="C10" s="40">
-        <v>0.85416666666666663</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D10" s="40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="41">
         <f t="shared" si="0"/>
-        <v>0.14583333333333337</v>
+        <v>1.1458333333333333</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>13</v>
@@ -1258,7 +1258,7 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="61">
         <v>3</v>
       </c>
       <c r="B12" s="26">
@@ -1284,7 +1284,7 @@
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="11">
         <v>41058</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="L13"/>
     </row>
     <row r="14" spans="1:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1319,7 +1319,7 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1333,7 +1333,7 @@
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1344,7 +1344,7 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="36"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1355,7 +1355,7 @@
       <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -1366,10 +1366,10 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="64">
+      <c r="A19" s="63">
         <v>4</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="51">
         <v>41075</v>
       </c>
       <c r="C19" s="9">
@@ -1390,8 +1390,8 @@
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="62">
+      <c r="A20" s="64"/>
+      <c r="B20" s="52">
         <v>41076</v>
       </c>
       <c r="C20" s="12">
@@ -1412,8 +1412,8 @@
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
-      <c r="B21" s="63">
+      <c r="A21" s="65"/>
+      <c r="B21" s="53">
         <v>41077</v>
       </c>
       <c r="C21" s="21">
@@ -1434,7 +1434,7 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="55">
+      <c r="A22" s="54">
         <v>5</v>
       </c>
       <c r="B22" s="26">
@@ -1458,7 +1458,7 @@
       <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="11">
         <v>41079</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1491,7 +1491,7 @@
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="39">
         <v>41084</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+      <c r="A27" s="54">
         <v>7</v>
       </c>
       <c r="B27" s="26"/>
@@ -1550,7 +1550,7 @@
       <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="11">
         <v>41090</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="20">
         <v>41091</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="55">
+      <c r="A30" s="54">
         <v>8</v>
       </c>
       <c r="B30" s="26">
@@ -1617,7 +1617,7 @@
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="11">
         <v>41092</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="20">
         <v>41094</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -1671,7 +1671,7 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="57"/>
+      <c r="A34" s="56"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35"/>

--- a/trunk/Architect and Design/Time_log_PhucNguyen.xlsx
+++ b/trunk/Architect and Design/Time_log_PhucNguyen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -1056,7 +1056,7 @@
   <dimension ref="A2:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1195,7 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -1411,24 +1411,13 @@
       <c r="H20" s="14"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
-      <c r="B21" s="53">
-        <v>41077</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E21" s="22">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="31"/>
